--- a/IOfile/IOfiles.xlsx
+++ b/IOfile/IOfiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Bike Name</t>
   </si>
@@ -43,12 +43,27 @@
     <t>Enter a valid email or phone number</t>
   </si>
   <si>
+    <t xml:space="preserve">Honda CBR300R </t>
+  </si>
+  <si>
+    <t>- ₹2.00 - ₹ 2.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honda CRF190L </t>
+  </si>
+  <si>
+    <t>- ₹1.98</t>
+  </si>
+  <si>
     <t xml:space="preserve">Honda CBR150R </t>
   </si>
   <si>
     <t>- ₹1.70</t>
   </si>
   <si>
+    <t xml:space="preserve">Honda NT1100 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Honda Rebel 300 </t>
   </si>
   <si>
@@ -61,6 +76,12 @@
     <t>- ₹1.20</t>
   </si>
   <si>
+    <t xml:space="preserve">Honda CRF300L </t>
+  </si>
+  <si>
+    <t>- ₹3.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Honda Hornet </t>
   </si>
   <si>
@@ -70,21 +91,6 @@
     <t xml:space="preserve">Honda XRE 300 </t>
   </si>
   <si>
-    <t>- ₹3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honda CBR300R </t>
-  </si>
-  <si>
-    <t>- ₹2.00 - ₹ 2.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honda NT1100 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honda CRF300L </t>
-  </si>
-  <si>
     <t xml:space="preserve">Honda CB350 Cafe Racer </t>
   </si>
   <si>
@@ -97,25 +103,16 @@
     <t>- ₹3.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Honda CRF190L </t>
-  </si>
-  <si>
-    <t>- ₹1.98</t>
-  </si>
-  <si>
-    <t>Hyundai Elite i20</t>
-  </si>
-  <si>
-    <t>Maruti Eeco</t>
-  </si>
-  <si>
-    <t>Hyundai Grand i10</t>
-  </si>
-  <si>
-    <t>Honda Amaze</t>
-  </si>
-  <si>
-    <t>Maruti Alto K10</t>
+    <t>Ford Ecosport</t>
+  </si>
+  <si>
+    <t>Maruti Swift</t>
+  </si>
+  <si>
+    <t>KIA SELTOS</t>
+  </si>
+  <si>
+    <t>Hyundai Creta</t>
   </si>
   <si>
     <t>pjsbxfdvzmx@gmail.com</t>
@@ -218,7 +215,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>7</v>
@@ -227,12 +224,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>7</v>
@@ -241,12 +238,12 @@
         <v>7</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
@@ -255,12 +252,12 @@
         <v>7</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
@@ -269,12 +266,12 @@
         <v>7</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>7</v>
@@ -283,12 +280,12 @@
         <v>7</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>7</v>
@@ -297,12 +294,12 @@
         <v>7</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>7</v>
@@ -311,12 +308,12 @@
         <v>7</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>7</v>
@@ -325,12 +322,12 @@
         <v>7</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>8</v>
@@ -339,7 +336,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -392,31 +389,31 @@
         <v>15</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -424,15 +421,15 @@
         <v>22</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -458,7 +455,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,11 +486,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
